--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\Misc\VS Code Projects\Weight_Loss_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA4A27F-2E0D-4899-B697-11A97DC14ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
@@ -394,9 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1052,6 +1054,14 @@
         <v>215</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B82">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\Misc\VS Code Projects\Weight_Loss_Prediction_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d3c782d15d1169e/Desktop/Misc/Projects/Weight_Loss_Prediction_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF662B74-72A0-41B1-9239-9A420E87E9B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,6 +1062,30 @@
         <v>214</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B83">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B84">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B85">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d3c782d15d1169e/Desktop/Misc/Projects/Weight_Loss_Prediction_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF662B74-72A0-41B1-9239-9A420E87E9B9}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B843CF08-5EA7-4606-BC67-42EC33E54F8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
@@ -95,6 +95,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,6 +1090,110 @@
         <v>214</v>
       </c>
     </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B86">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B87">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B88">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B89">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B90">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B91">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B92">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B93">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B94">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B95">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B96">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B97">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B98">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d3c782d15d1169e/Desktop/Misc/Projects/Weight_Loss_Prediction_Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\Misc\VS Code Projects\Weight_Loss_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8AC1C433-E06A-4924-B825-78043C15711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B843CF08-5EA7-4606-BC67-42EC33E54F8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F5745-A440-4F9D-B871-16C5B2F4C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,14 +97,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -248,7 +244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1190,374 @@
         <v>212</v>
       </c>
     </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B99">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B100">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B101">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B102">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B103">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B104">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B105">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B106">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B107">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B108">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B109">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B110">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B111">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B112">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B113">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B114">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B115">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B116">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B117">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B118">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B119">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B120">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B121">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B122">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B123">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B124">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B126">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B127">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B128">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B129">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B130">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B131">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B132">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B133">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B134">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B135">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B136">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B137">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B138">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B139">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B140">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B141">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B142">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B143">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B144">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\Misc\VS Code Projects\Weight_Loss_Prediction_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d3c782d15d1169e/Desktop/Misc/Projects/Weight_Loss_Prediction_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F5745-A440-4F9D-B871-16C5B2F4C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{CD0F5745-A440-4F9D-B871-16C5B2F4C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3DE261-7572-452F-8F11-6FFF6D4849E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,6 +1558,166 @@
         <v>200</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B145">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B146">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B147">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B148">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B149">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B150">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B151">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B152">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B153">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B154">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B155">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B156">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B157">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B158">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B159">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B160">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B161">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B162">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B163">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B164">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weight_Loss_Journey.xlsx
+++ b/Weight_Loss_Journey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d3c782d15d1169e/Desktop/Misc/Projects/Weight_Loss_Prediction_Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig\OneDrive\Desktop\Misc\VS Code Projects\Weight_Loss_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{CD0F5745-A440-4F9D-B871-16C5B2F4C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3DE261-7572-452F-8F11-6FFF6D4849E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6B9D7-A4D2-437D-B348-D6B07305CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AD97C05-9611-4D4A-87BD-EA833F2B5741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36103FFB-0C3D-418E-A2F0-4ACEA71BB9CF}">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,6 +1718,798 @@
         <v>196</v>
       </c>
     </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B165">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B166">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B167">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B168">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B169">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B170">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B171">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B172">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B173">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B174">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B175">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B176">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B177">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B178">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B179">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B180">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B181">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B182">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B183">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B184">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B185">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B186">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B187">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B188">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B189">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B190">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B191">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B192">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B196">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B197">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B198">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B199">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B200">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B201">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B202">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B203">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B204">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B205">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B206">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B207">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B208">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B209">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B210">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B211">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B212">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B213">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B214">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B215">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B216">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B217">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B218">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B219">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B220">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B221">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B222">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B223">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B224">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B225">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B226">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B227">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B228">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B229">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B230">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B231">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B232">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B233">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B234">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B235">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B236">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B237">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B238">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B239">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B240">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B241">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B242">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B243">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B244">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B245">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B246">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B247">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B248">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B249">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B250">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B251">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B252">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B253">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B254">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B255">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B256">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B257">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B258">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B259">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B260">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B261">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B262">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B263">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
